--- a/final_data_pipeline/output/311511_elec_options.xlsx
+++ b/final_data_pipeline/output/311511_elec_options.xlsx
@@ -1519,7 +1519,7 @@
         <v>62</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1614,7 +1614,7 @@
         <v>62</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1709,7 +1709,7 @@
         <v>62</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE12">
         <v>8000</v>
